--- a/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="87">
   <si>
     <t>Process</t>
   </si>
@@ -49,37 +49,37 @@
     <t>rcxt_corner</t>
   </si>
   <si>
-    <t>tpdr_S10_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S9_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S8_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S7_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S6_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S5_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S4_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S3_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S2_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S1_OUT (p)</t>
-  </si>
-  <si>
-    <t>tpdr_S0_OUT (p)</t>
+    <t>tpdr_s10_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s9_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s8_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s7_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s6_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s5_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s4_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s3_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s2_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s1_out (p)</t>
+  </si>
+  <si>
+    <t>tpdr_s0_out (p)</t>
   </si>
   <si>
     <t>tsmc2p (0)</t>
@@ -944,38 +944,38 @@
       <c r="K5" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+      <c r="L5">
+        <v>3.12345E-11</v>
+      </c>
+      <c r="M5">
+        <v>3.08367E-11</v>
+      </c>
+      <c r="N5">
+        <v>3.15777E-11</v>
+      </c>
+      <c r="O5">
+        <v>3.10953E-11</v>
+      </c>
+      <c r="P5">
+        <v>2.96157E-11</v>
+      </c>
+      <c r="Q5">
+        <v>2.98354E-11</v>
+      </c>
+      <c r="R5">
+        <v>3.08761E-11</v>
+      </c>
+      <c r="S5">
+        <v>3.02447E-11</v>
+      </c>
+      <c r="T5">
+        <v>3.12353E-11</v>
+      </c>
+      <c r="U5">
+        <v>3.05044E-11</v>
+      </c>
+      <c r="V5">
+        <v>2.92753E-11</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2070,76 +2070,76 @@
       <c r="K22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="L22" s="1">
+        <v>3.12345E-11</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.08367E-11</v>
+      </c>
+      <c r="N22" s="1">
+        <v>3.15777E-11</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3.10953E-11</v>
+      </c>
+      <c r="P22" s="1">
+        <v>2.96157E-11</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>2.98354E-11</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3.08761E-11</v>
+      </c>
+      <c r="S22" s="1">
+        <v>3.02447E-11</v>
+      </c>
+      <c r="T22" s="1">
+        <v>3.12353E-11</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3.05044E-11</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.92753E-11</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="1" customFormat="1">
       <c r="K23" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="L23" s="1">
+        <v>3.12345E-11</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3.08367E-11</v>
+      </c>
+      <c r="N23" s="1">
+        <v>3.15777E-11</v>
+      </c>
+      <c r="O23" s="1">
+        <v>3.10953E-11</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2.96157E-11</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2.98354E-11</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3.08761E-11</v>
+      </c>
+      <c r="S23" s="1">
+        <v>3.02447E-11</v>
+      </c>
+      <c r="T23" s="1">
+        <v>3.12353E-11</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3.05044E-11</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.92753E-11</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1">
@@ -2166,114 +2166,114 @@
       <c r="K28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="L28" s="1">
+        <v>3.12345E-11</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3.08367E-11</v>
+      </c>
+      <c r="N28" s="1">
+        <v>3.15777E-11</v>
+      </c>
+      <c r="O28" s="1">
+        <v>3.10953E-11</v>
+      </c>
+      <c r="P28" s="1">
+        <v>2.96157E-11</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>2.98354E-11</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3.08761E-11</v>
+      </c>
+      <c r="S28" s="1">
+        <v>3.02447E-11</v>
+      </c>
+      <c r="T28" s="1">
+        <v>3.12353E-11</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3.05044E-11</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2.92753E-11</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1">
       <c r="K29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" s="1" customFormat="1">
       <c r="K30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1"/>

--- a/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
@@ -945,37 +945,37 @@
         <v>47</v>
       </c>
       <c r="L5">
-        <v>3.12345E-11</v>
+        <v>9.30011E-11</v>
       </c>
       <c r="M5">
-        <v>3.08367E-11</v>
+        <v>-3.24863E-11</v>
       </c>
       <c r="N5">
-        <v>3.15777E-11</v>
+        <v>9.30413E-11</v>
       </c>
       <c r="O5">
-        <v>3.10953E-11</v>
+        <v>-3.5926E-11</v>
       </c>
       <c r="P5">
-        <v>2.96157E-11</v>
+        <v>9.22184E-11</v>
       </c>
       <c r="Q5">
-        <v>2.98354E-11</v>
+        <v>-3.65816E-11</v>
       </c>
       <c r="R5">
-        <v>3.08761E-11</v>
+        <v>9.23592E-11</v>
       </c>
       <c r="S5">
-        <v>3.02447E-11</v>
+        <v>-3.63352E-11</v>
       </c>
       <c r="T5">
-        <v>3.12353E-11</v>
+        <v>9.17418E-11</v>
       </c>
       <c r="U5">
-        <v>3.05044E-11</v>
+        <v>-3.63666E-11</v>
       </c>
       <c r="V5">
-        <v>2.92753E-11</v>
+        <v>9.09326E-11</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2071,37 +2071,37 @@
         <v>78</v>
       </c>
       <c r="L22" s="1">
-        <v>3.12345E-11</v>
+        <v>9.30011E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>3.08367E-11</v>
+        <v>-3.24863E-11</v>
       </c>
       <c r="N22" s="1">
-        <v>3.15777E-11</v>
+        <v>9.30413E-11</v>
       </c>
       <c r="O22" s="1">
-        <v>3.10953E-11</v>
+        <v>-3.5926E-11</v>
       </c>
       <c r="P22" s="1">
-        <v>2.96157E-11</v>
+        <v>9.22184E-11</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.98354E-11</v>
+        <v>-3.65816E-11</v>
       </c>
       <c r="R22" s="1">
-        <v>3.08761E-11</v>
+        <v>9.23592E-11</v>
       </c>
       <c r="S22" s="1">
-        <v>3.02447E-11</v>
+        <v>-3.63352E-11</v>
       </c>
       <c r="T22" s="1">
-        <v>3.12353E-11</v>
+        <v>9.17418E-11</v>
       </c>
       <c r="U22" s="1">
-        <v>3.05044E-11</v>
+        <v>-3.63666E-11</v>
       </c>
       <c r="V22" s="1">
-        <v>2.92753E-11</v>
+        <v>9.09326E-11</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="1" customFormat="1">
@@ -2109,37 +2109,37 @@
         <v>79</v>
       </c>
       <c r="L23" s="1">
-        <v>3.12345E-11</v>
+        <v>9.30011E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>3.08367E-11</v>
+        <v>-3.24863E-11</v>
       </c>
       <c r="N23" s="1">
-        <v>3.15777E-11</v>
+        <v>9.30413E-11</v>
       </c>
       <c r="O23" s="1">
-        <v>3.10953E-11</v>
+        <v>-3.5926E-11</v>
       </c>
       <c r="P23" s="1">
-        <v>2.96157E-11</v>
+        <v>9.22184E-11</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.98354E-11</v>
+        <v>-3.65816E-11</v>
       </c>
       <c r="R23" s="1">
-        <v>3.08761E-11</v>
+        <v>9.23592E-11</v>
       </c>
       <c r="S23" s="1">
-        <v>3.02447E-11</v>
+        <v>-3.63352E-11</v>
       </c>
       <c r="T23" s="1">
-        <v>3.12353E-11</v>
+        <v>9.17418E-11</v>
       </c>
       <c r="U23" s="1">
-        <v>3.05044E-11</v>
+        <v>-3.63666E-11</v>
       </c>
       <c r="V23" s="1">
-        <v>2.92753E-11</v>
+        <v>9.09326E-11</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1">
@@ -2167,37 +2167,37 @@
         <v>84</v>
       </c>
       <c r="L28" s="1">
-        <v>3.12345E-11</v>
+        <v>9.30011E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>3.08367E-11</v>
+        <v>-3.24863E-11</v>
       </c>
       <c r="N28" s="1">
-        <v>3.15777E-11</v>
+        <v>9.30413E-11</v>
       </c>
       <c r="O28" s="1">
-        <v>3.10953E-11</v>
+        <v>-3.5926E-11</v>
       </c>
       <c r="P28" s="1">
-        <v>2.96157E-11</v>
+        <v>9.22184E-11</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.98354E-11</v>
+        <v>-3.65816E-11</v>
       </c>
       <c r="R28" s="1">
-        <v>3.08761E-11</v>
+        <v>9.23592E-11</v>
       </c>
       <c r="S28" s="1">
-        <v>3.02447E-11</v>
+        <v>-3.63352E-11</v>
       </c>
       <c r="T28" s="1">
-        <v>3.12353E-11</v>
+        <v>9.17418E-11</v>
       </c>
       <c r="U28" s="1">
-        <v>3.05044E-11</v>
+        <v>-3.63666E-11</v>
       </c>
       <c r="V28" s="1">
-        <v>2.92753E-11</v>
+        <v>9.09326E-11</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1">

--- a/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
@@ -945,37 +945,37 @@
         <v>47</v>
       </c>
       <c r="L5">
-        <v>9.30011E-11</v>
+        <v>2.58672E-11</v>
       </c>
       <c r="M5">
-        <v>-3.24863E-11</v>
+        <v>3.27401E-11</v>
       </c>
       <c r="N5">
-        <v>9.30413E-11</v>
+        <v>2.5548E-11</v>
       </c>
       <c r="O5">
-        <v>-3.5926E-11</v>
+        <v>3.29883E-11</v>
       </c>
       <c r="P5">
-        <v>9.22184E-11</v>
+        <v>2.49094E-11</v>
       </c>
       <c r="Q5">
-        <v>-3.65816E-11</v>
+        <v>3.21682E-11</v>
       </c>
       <c r="R5">
-        <v>9.23592E-11</v>
+        <v>2.54165E-11</v>
       </c>
       <c r="S5">
-        <v>-3.63352E-11</v>
+        <v>3.26057E-11</v>
       </c>
       <c r="T5">
-        <v>9.17418E-11</v>
+        <v>2.52883E-11</v>
       </c>
       <c r="U5">
-        <v>-3.63666E-11</v>
+        <v>3.28506E-11</v>
       </c>
       <c r="V5">
-        <v>9.09326E-11</v>
+        <v>2.46495E-11</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2071,37 +2071,37 @@
         <v>78</v>
       </c>
       <c r="L22" s="1">
-        <v>9.30011E-11</v>
+        <v>2.58672E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>-3.24863E-11</v>
+        <v>3.27401E-11</v>
       </c>
       <c r="N22" s="1">
-        <v>9.30413E-11</v>
+        <v>2.5548E-11</v>
       </c>
       <c r="O22" s="1">
-        <v>-3.5926E-11</v>
+        <v>3.29883E-11</v>
       </c>
       <c r="P22" s="1">
-        <v>9.22184E-11</v>
+        <v>2.49094E-11</v>
       </c>
       <c r="Q22" s="1">
-        <v>-3.65816E-11</v>
+        <v>3.21682E-11</v>
       </c>
       <c r="R22" s="1">
-        <v>9.23592E-11</v>
+        <v>2.54165E-11</v>
       </c>
       <c r="S22" s="1">
-        <v>-3.63352E-11</v>
+        <v>3.26057E-11</v>
       </c>
       <c r="T22" s="1">
-        <v>9.17418E-11</v>
+        <v>2.52883E-11</v>
       </c>
       <c r="U22" s="1">
-        <v>-3.63666E-11</v>
+        <v>3.28506E-11</v>
       </c>
       <c r="V22" s="1">
-        <v>9.09326E-11</v>
+        <v>2.46495E-11</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="1" customFormat="1">
@@ -2109,37 +2109,37 @@
         <v>79</v>
       </c>
       <c r="L23" s="1">
-        <v>9.30011E-11</v>
+        <v>2.58672E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>-3.24863E-11</v>
+        <v>3.27401E-11</v>
       </c>
       <c r="N23" s="1">
-        <v>9.30413E-11</v>
+        <v>2.5548E-11</v>
       </c>
       <c r="O23" s="1">
-        <v>-3.5926E-11</v>
+        <v>3.29883E-11</v>
       </c>
       <c r="P23" s="1">
-        <v>9.22184E-11</v>
+        <v>2.49094E-11</v>
       </c>
       <c r="Q23" s="1">
-        <v>-3.65816E-11</v>
+        <v>3.21682E-11</v>
       </c>
       <c r="R23" s="1">
-        <v>9.23592E-11</v>
+        <v>2.54165E-11</v>
       </c>
       <c r="S23" s="1">
-        <v>-3.63352E-11</v>
+        <v>3.26057E-11</v>
       </c>
       <c r="T23" s="1">
-        <v>9.17418E-11</v>
+        <v>2.52883E-11</v>
       </c>
       <c r="U23" s="1">
-        <v>-3.63666E-11</v>
+        <v>3.28506E-11</v>
       </c>
       <c r="V23" s="1">
-        <v>9.09326E-11</v>
+        <v>2.46495E-11</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1">
@@ -2167,37 +2167,37 @@
         <v>84</v>
       </c>
       <c r="L28" s="1">
-        <v>9.30011E-11</v>
+        <v>2.58672E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>-3.24863E-11</v>
+        <v>3.27401E-11</v>
       </c>
       <c r="N28" s="1">
-        <v>9.30413E-11</v>
+        <v>2.5548E-11</v>
       </c>
       <c r="O28" s="1">
-        <v>-3.5926E-11</v>
+        <v>3.29883E-11</v>
       </c>
       <c r="P28" s="1">
-        <v>9.22184E-11</v>
+        <v>2.49094E-11</v>
       </c>
       <c r="Q28" s="1">
-        <v>-3.65816E-11</v>
+        <v>3.21682E-11</v>
       </c>
       <c r="R28" s="1">
-        <v>9.23592E-11</v>
+        <v>2.54165E-11</v>
       </c>
       <c r="S28" s="1">
-        <v>-3.63352E-11</v>
+        <v>3.26057E-11</v>
       </c>
       <c r="T28" s="1">
-        <v>9.17418E-11</v>
+        <v>2.52883E-11</v>
       </c>
       <c r="U28" s="1">
-        <v>-3.63666E-11</v>
+        <v>3.28506E-11</v>
       </c>
       <c r="V28" s="1">
-        <v>9.09326E-11</v>
+        <v>2.46495E-11</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1">

--- a/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
@@ -945,37 +945,37 @@
         <v>47</v>
       </c>
       <c r="L5">
-        <v>2.58672E-11</v>
+        <v>2.38032E-11</v>
       </c>
       <c r="M5">
-        <v>3.27401E-11</v>
+        <v>2.63742E-11</v>
       </c>
       <c r="N5">
-        <v>2.5548E-11</v>
+        <v>2.32056E-11</v>
       </c>
       <c r="O5">
-        <v>3.29883E-11</v>
+        <v>2.60339E-11</v>
       </c>
       <c r="P5">
-        <v>2.49094E-11</v>
+        <v>2.25999E-11</v>
       </c>
       <c r="Q5">
-        <v>3.21682E-11</v>
+        <v>2.52199E-11</v>
       </c>
       <c r="R5">
-        <v>2.54165E-11</v>
+        <v>2.20647E-11</v>
       </c>
       <c r="S5">
-        <v>3.26057E-11</v>
+        <v>2.49942E-11</v>
       </c>
       <c r="T5">
-        <v>2.52883E-11</v>
+        <v>2.14352E-11</v>
       </c>
       <c r="U5">
-        <v>3.28506E-11</v>
+        <v>2.38954E-11</v>
       </c>
       <c r="V5">
-        <v>2.46495E-11</v>
+        <v>2.08593E-11</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2071,37 +2071,37 @@
         <v>78</v>
       </c>
       <c r="L22" s="1">
-        <v>2.58672E-11</v>
+        <v>2.38032E-11</v>
       </c>
       <c r="M22" s="1">
-        <v>3.27401E-11</v>
+        <v>2.63742E-11</v>
       </c>
       <c r="N22" s="1">
-        <v>2.5548E-11</v>
+        <v>2.32056E-11</v>
       </c>
       <c r="O22" s="1">
-        <v>3.29883E-11</v>
+        <v>2.60339E-11</v>
       </c>
       <c r="P22" s="1">
-        <v>2.49094E-11</v>
+        <v>2.25999E-11</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.21682E-11</v>
+        <v>2.52199E-11</v>
       </c>
       <c r="R22" s="1">
-        <v>2.54165E-11</v>
+        <v>2.20647E-11</v>
       </c>
       <c r="S22" s="1">
-        <v>3.26057E-11</v>
+        <v>2.49942E-11</v>
       </c>
       <c r="T22" s="1">
-        <v>2.52883E-11</v>
+        <v>2.14352E-11</v>
       </c>
       <c r="U22" s="1">
-        <v>3.28506E-11</v>
+        <v>2.38954E-11</v>
       </c>
       <c r="V22" s="1">
-        <v>2.46495E-11</v>
+        <v>2.08593E-11</v>
       </c>
     </row>
     <row r="23" spans="1:22" s="1" customFormat="1">
@@ -2109,37 +2109,37 @@
         <v>79</v>
       </c>
       <c r="L23" s="1">
-        <v>2.58672E-11</v>
+        <v>2.38032E-11</v>
       </c>
       <c r="M23" s="1">
-        <v>3.27401E-11</v>
+        <v>2.63742E-11</v>
       </c>
       <c r="N23" s="1">
-        <v>2.5548E-11</v>
+        <v>2.32056E-11</v>
       </c>
       <c r="O23" s="1">
-        <v>3.29883E-11</v>
+        <v>2.60339E-11</v>
       </c>
       <c r="P23" s="1">
-        <v>2.49094E-11</v>
+        <v>2.25999E-11</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.21682E-11</v>
+        <v>2.52199E-11</v>
       </c>
       <c r="R23" s="1">
-        <v>2.54165E-11</v>
+        <v>2.20647E-11</v>
       </c>
       <c r="S23" s="1">
-        <v>3.26057E-11</v>
+        <v>2.49942E-11</v>
       </c>
       <c r="T23" s="1">
-        <v>2.52883E-11</v>
+        <v>2.14352E-11</v>
       </c>
       <c r="U23" s="1">
-        <v>3.28506E-11</v>
+        <v>2.38954E-11</v>
       </c>
       <c r="V23" s="1">
-        <v>2.46495E-11</v>
+        <v>2.08593E-11</v>
       </c>
     </row>
     <row r="24" spans="1:22" s="1" customFormat="1">
@@ -2167,37 +2167,37 @@
         <v>84</v>
       </c>
       <c r="L28" s="1">
-        <v>2.58672E-11</v>
+        <v>2.38032E-11</v>
       </c>
       <c r="M28" s="1">
-        <v>3.27401E-11</v>
+        <v>2.63742E-11</v>
       </c>
       <c r="N28" s="1">
-        <v>2.5548E-11</v>
+        <v>2.32056E-11</v>
       </c>
       <c r="O28" s="1">
-        <v>3.29883E-11</v>
+        <v>2.60339E-11</v>
       </c>
       <c r="P28" s="1">
-        <v>2.49094E-11</v>
+        <v>2.25999E-11</v>
       </c>
       <c r="Q28" s="1">
-        <v>3.21682E-11</v>
+        <v>2.52199E-11</v>
       </c>
       <c r="R28" s="1">
-        <v>2.54165E-11</v>
+        <v>2.20647E-11</v>
       </c>
       <c r="S28" s="1">
-        <v>3.26057E-11</v>
+        <v>2.49942E-11</v>
       </c>
       <c r="T28" s="1">
-        <v>2.52883E-11</v>
+        <v>2.14352E-11</v>
       </c>
       <c r="U28" s="1">
-        <v>3.28506E-11</v>
+        <v>2.38954E-11</v>
       </c>
       <c r="V28" s="1">
-        <v>2.46495E-11</v>
+        <v>2.08593E-11</v>
       </c>
     </row>
     <row r="29" spans="1:22" s="1" customFormat="1">

--- a/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
+++ b/tx_fifo_timing_mux16_nand_tsmc2p_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="88">
   <si>
     <t>Process</t>
   </si>
@@ -82,6 +82,9 @@
     <t>tpdr_s0_out (p)</t>
   </si>
   <si>
+    <t>iavg_vdd (p)</t>
+  </si>
+  <si>
     <t>tsmc2p (0)</t>
   </si>
   <si>
@@ -115,13 +118,13 @@
     <t>typical</t>
   </si>
   <si>
+    <t>tsmc2p (1)</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>tsmc2p (1)</t>
-  </si>
-  <si>
-    <t>-40</t>
   </si>
   <si>
     <t>tsmc2p (2)</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,7 +641,7 @@
     <col min="1" max="101" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" spans="1:23" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,1300 +708,1360 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="L2">
+        <v>1.36897E-10</v>
+      </c>
+      <c r="M2">
+        <v>-6.87599E-11</v>
+      </c>
+      <c r="N2">
+        <v>1.35465E-10</v>
+      </c>
+      <c r="O2">
+        <v>-6.98912E-11</v>
+      </c>
+      <c r="P2">
+        <v>1.35195E-10</v>
+      </c>
+      <c r="Q2">
+        <v>-7.008280000000001E-11</v>
+      </c>
+      <c r="R2">
+        <v>1.35841E-10</v>
+      </c>
+      <c r="S2">
+        <v>-6.93132E-11</v>
+      </c>
+      <c r="T2">
+        <v>1.36165E-10</v>
+      </c>
+      <c r="U2">
+        <v>-6.9147E-11</v>
+      </c>
+      <c r="V2">
+        <v>1.35561E-10</v>
+      </c>
+      <c r="W2">
+        <v>1.25124E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
         <v>47</v>
       </c>
-      <c r="L5">
-        <v>2.38032E-11</v>
-      </c>
-      <c r="M5">
-        <v>2.63742E-11</v>
-      </c>
-      <c r="N5">
-        <v>2.32056E-11</v>
-      </c>
-      <c r="O5">
-        <v>2.60339E-11</v>
-      </c>
-      <c r="P5">
-        <v>2.25999E-11</v>
-      </c>
-      <c r="Q5">
-        <v>2.52199E-11</v>
-      </c>
-      <c r="R5">
-        <v>2.20647E-11</v>
-      </c>
-      <c r="S5">
-        <v>2.49942E-11</v>
-      </c>
-      <c r="T5">
-        <v>2.14352E-11</v>
-      </c>
-      <c r="U5">
-        <v>2.38954E-11</v>
-      </c>
-      <c r="V5">
-        <v>2.08593E-11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H7" t="s">
         <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
       </c>
       <c r="I7" t="s">
         <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>36</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>36</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
         <v>59</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H11" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" t="s">
-        <v>59</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
         <v>59</v>
       </c>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H13" t="s">
         <v>60</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
         <v>59</v>
       </c>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
         <v>58</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G17" t="s">
         <v>59</v>
       </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G19" t="s">
         <v>59</v>
       </c>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-      <c r="K20" t="s">
-        <v>32</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="1" customFormat="1">
+        <v>36</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="1" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2065,144 +2128,156 @@
       <c r="V21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="1" customFormat="1">
+      <c r="W21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="1" customFormat="1">
       <c r="K22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L22" s="1">
-        <v>2.38032E-11</v>
+        <v>1.36897E-10</v>
       </c>
       <c r="M22" s="1">
-        <v>2.63742E-11</v>
+        <v>-6.87599E-11</v>
       </c>
       <c r="N22" s="1">
-        <v>2.32056E-11</v>
+        <v>1.35465E-10</v>
       </c>
       <c r="O22" s="1">
-        <v>2.60339E-11</v>
+        <v>-6.98912E-11</v>
       </c>
       <c r="P22" s="1">
-        <v>2.25999E-11</v>
+        <v>1.35195E-10</v>
       </c>
       <c r="Q22" s="1">
-        <v>2.52199E-11</v>
+        <v>-7.008280000000001E-11</v>
       </c>
       <c r="R22" s="1">
-        <v>2.20647E-11</v>
+        <v>1.35841E-10</v>
       </c>
       <c r="S22" s="1">
-        <v>2.49942E-11</v>
+        <v>-6.93132E-11</v>
       </c>
       <c r="T22" s="1">
-        <v>2.14352E-11</v>
+        <v>1.36165E-10</v>
       </c>
       <c r="U22" s="1">
-        <v>2.38954E-11</v>
+        <v>-6.9147E-11</v>
       </c>
       <c r="V22" s="1">
-        <v>2.08593E-11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="1" customFormat="1">
+        <v>1.35561E-10</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1.25124E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" s="1" customFormat="1">
       <c r="K23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L23" s="1">
-        <v>2.38032E-11</v>
+        <v>1.36897E-10</v>
       </c>
       <c r="M23" s="1">
-        <v>2.63742E-11</v>
+        <v>-6.87599E-11</v>
       </c>
       <c r="N23" s="1">
-        <v>2.32056E-11</v>
+        <v>1.35465E-10</v>
       </c>
       <c r="O23" s="1">
-        <v>2.60339E-11</v>
+        <v>-6.98912E-11</v>
       </c>
       <c r="P23" s="1">
-        <v>2.25999E-11</v>
+        <v>1.35195E-10</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.52199E-11</v>
+        <v>-7.008280000000001E-11</v>
       </c>
       <c r="R23" s="1">
-        <v>2.20647E-11</v>
+        <v>1.35841E-10</v>
       </c>
       <c r="S23" s="1">
-        <v>2.49942E-11</v>
+        <v>-6.93132E-11</v>
       </c>
       <c r="T23" s="1">
-        <v>2.14352E-11</v>
+        <v>1.36165E-10</v>
       </c>
       <c r="U23" s="1">
-        <v>2.38954E-11</v>
+        <v>-6.9147E-11</v>
       </c>
       <c r="V23" s="1">
-        <v>2.08593E-11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="1" customFormat="1">
+        <v>1.35561E-10</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1.25124E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="1" customFormat="1">
       <c r="K24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="1" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="1" customFormat="1">
       <c r="K25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="1" customFormat="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="1" customFormat="1">
       <c r="K26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="1" customFormat="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1">
       <c r="K27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="1" customFormat="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="1" customFormat="1">
       <c r="K28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" s="1">
-        <v>2.38032E-11</v>
+        <v>1.36897E-10</v>
       </c>
       <c r="M28" s="1">
-        <v>2.63742E-11</v>
+        <v>-6.87599E-11</v>
       </c>
       <c r="N28" s="1">
-        <v>2.32056E-11</v>
+        <v>1.35465E-10</v>
       </c>
       <c r="O28" s="1">
-        <v>2.60339E-11</v>
+        <v>-6.98912E-11</v>
       </c>
       <c r="P28" s="1">
-        <v>2.25999E-11</v>
+        <v>1.35195E-10</v>
       </c>
       <c r="Q28" s="1">
-        <v>2.52199E-11</v>
+        <v>-7.008280000000001E-11</v>
       </c>
       <c r="R28" s="1">
-        <v>2.20647E-11</v>
+        <v>1.35841E-10</v>
       </c>
       <c r="S28" s="1">
-        <v>2.49942E-11</v>
+        <v>-6.93132E-11</v>
       </c>
       <c r="T28" s="1">
-        <v>2.14352E-11</v>
+        <v>1.36165E-10</v>
       </c>
       <c r="U28" s="1">
-        <v>2.38954E-11</v>
+        <v>-6.9147E-11</v>
       </c>
       <c r="V28" s="1">
-        <v>2.08593E-11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="1" customFormat="1">
+        <v>1.35561E-10</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1.25124E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1">
       <c r="K29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L29" s="1">
         <v>0</v>
@@ -2237,10 +2312,13 @@
       <c r="V29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1">
       <c r="K30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -2275,8 +2353,11 @@
       <c r="V30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" s="1" customFormat="1"/>
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
